--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\workspace\workspace-shibata\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,10 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
-    <t>スケジュール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・コーディング</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -260,6 +256,22 @@
     <t>10月</t>
     <rPh sb="2" eb="3">
       <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール(もちろん予定なので、早くなる・遅くなる可能性7あり）</t>
+    <rPh sb="11" eb="13">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>カノウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -268,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,14 +298,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -301,8 +305,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -346,21 +414,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,130 +728,130 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3">
+        <v>4</v>
+      </c>
+      <c r="O5" s="3">
+        <v>5</v>
+      </c>
+      <c r="P5" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4">
         <v>9</v>
       </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="G6" s="4">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4">
+        <v>11</v>
+      </c>
+      <c r="J6" s="3">
         <v>7</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>2</v>
-      </c>
-      <c r="M5" s="2">
-        <v>3</v>
-      </c>
-      <c r="N5" s="2">
-        <v>4</v>
-      </c>
-      <c r="O5" s="2">
-        <v>5</v>
-      </c>
-      <c r="P5" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2">
-        <v>10</v>
-      </c>
-      <c r="H6" s="2">
-        <v>11</v>
-      </c>
-      <c r="J6" s="2">
-        <v>7</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>8</v>
       </c>
       <c r="L6" s="2">
@@ -788,25 +871,25 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>13</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>14</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>15</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>16</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>17</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>18</v>
       </c>
       <c r="J7" s="2">
@@ -832,25 +915,25 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>19</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>20</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>21</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5">
         <v>22</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="5">
         <v>23</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>24</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="5">
         <v>25</v>
       </c>
       <c r="J8" s="2">
@@ -876,22 +959,22 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>26</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>27</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>28</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="6">
         <v>29</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="6">
         <v>30</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="6">
         <v>31</v>
       </c>
       <c r="H9" s="2"/>
@@ -913,30 +996,30 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
@@ -946,104 +1029,104 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2">
+      <c r="H14" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="6">
         <v>3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="6">
         <v>4</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="7">
         <v>5</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="7">
         <v>6</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="7">
         <v>7</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
+      <c r="B16" s="7">
         <v>9</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="7">
         <v>10</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="7">
         <v>11</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="7">
         <v>12</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="7">
         <v>13</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="7">
         <v>14</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
+      <c r="B17" s="7">
         <v>16</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="7">
         <v>17</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="7">
         <v>18</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="8">
         <v>19</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="8">
         <v>20</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="8">
         <v>21</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="8">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
+      <c r="B18" s="8">
         <v>23</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="8">
         <v>24</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="8">
         <v>25</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>26</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>27</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>28</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>30</v>
       </c>
       <c r="C19" s="2"/>
@@ -1055,77 +1138,77 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>・コーディング</t>
     <phoneticPr fontId="1"/>
@@ -108,22 +108,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>8月1日～8月21日</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>8月21日～8月28日</t>
     <rPh sb="1" eb="2">
       <t>ガツ</t>
@@ -136,126 +120,6 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8月28日～9月4日</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9月4日～9月18日</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9月18日～9月25日</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ES作成</t>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>営業の方との打ち合わせとかあるのかもしれないので、あくまで仮の予定。</t>
-    <rPh sb="0" eb="2">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9月25日～10月1日</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・レビュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10月1日～10月8日</t>
-    <rPh sb="2" eb="3">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10月</t>
-    <rPh sb="2" eb="3">
-      <t>ガツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -272,6 +136,70 @@
     </rPh>
     <rPh sb="26" eb="29">
       <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8月28日～8月31日</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8月18日～8月21日</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8月15日～8月18日</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7月24日～8月15日</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -280,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,61 +244,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFC000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF92D050"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF7030A0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -414,36 +287,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,28 +589,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -768,238 +637,196 @@
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="G5" s="3">
         <v>3</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="H5" s="3">
         <v>4</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="C6" s="3">
         <v>6</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="D6" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>3</v>
-      </c>
-      <c r="H5" s="4">
-        <v>4</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>2</v>
-      </c>
-      <c r="M5" s="3">
-        <v>3</v>
-      </c>
-      <c r="N5" s="3">
-        <v>4</v>
-      </c>
-      <c r="O5" s="3">
-        <v>5</v>
-      </c>
-      <c r="P5" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>8</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>9</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>10</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>11</v>
       </c>
-      <c r="J6" s="3">
-        <v>7</v>
-      </c>
-      <c r="K6" s="3">
-        <v>8</v>
-      </c>
-      <c r="L6" s="2">
-        <v>9</v>
-      </c>
-      <c r="M6" s="2">
-        <v>10</v>
-      </c>
-      <c r="N6" s="2">
-        <v>11</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
         <v>12</v>
       </c>
-      <c r="P6" s="2">
+      <c r="C7" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B7" s="4">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>14</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>15</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>16</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>17</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>18</v>
       </c>
-      <c r="J7" s="2">
-        <v>14</v>
-      </c>
-      <c r="K7" s="2">
-        <v>15</v>
-      </c>
-      <c r="L7" s="2">
-        <v>16</v>
-      </c>
-      <c r="M7" s="2">
-        <v>17</v>
-      </c>
-      <c r="N7" s="2">
-        <v>18</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
         <v>19</v>
       </c>
-      <c r="P7" s="2">
+      <c r="C8" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B8" s="4">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>21</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>22</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>23</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>24</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>25</v>
       </c>
-      <c r="J8" s="2">
-        <v>21</v>
-      </c>
-      <c r="K8" s="2">
-        <v>22</v>
-      </c>
-      <c r="L8" s="2">
-        <v>23</v>
-      </c>
-      <c r="M8" s="2">
-        <v>24</v>
-      </c>
-      <c r="N8" s="2">
-        <v>25</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
         <v>26</v>
       </c>
-      <c r="P8" s="2">
+      <c r="C9" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>28</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>29</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>30</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>31</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="J9" s="2">
-        <v>28</v>
-      </c>
-      <c r="K9" s="2">
-        <v>29</v>
-      </c>
-      <c r="L9" s="2">
-        <v>30</v>
-      </c>
-      <c r="M9" s="2">
-        <v>31</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H9" s="3"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
@@ -1022,94 +849,94 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="6">
+    <row r="14" spans="1:17" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B15" s="6">
+    <row r="15" spans="1:17" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>3</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <v>5</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="3">
         <v>6</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="3">
         <v>7</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B16" s="7">
+    <row r="16" spans="1:17" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <v>10</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="3">
         <v>11</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="3">
         <v>12</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="3">
         <v>13</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="3">
         <v>14</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B17" s="7">
+      <c r="B17" s="3">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>17</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="3">
         <v>18</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="3">
         <v>19</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="3">
         <v>20</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="3">
         <v>21</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B18" s="8">
+      <c r="B18" s="3">
         <v>23</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="3">
         <v>24</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="3">
         <v>25</v>
       </c>
       <c r="E18" s="3">
@@ -1129,12 +956,12 @@
       <c r="B19" s="3">
         <v>30</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
@@ -1143,7 +970,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
@@ -1153,7 +980,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
@@ -1163,7 +990,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
@@ -1173,7 +1000,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
@@ -1183,32 +1010,7 @@
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
